--- a/data/cement/factories/clinker_factory-HC.xlsx
+++ b/data/cement/factories/clinker_factory-HC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="18720" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="585" yWindow="465" windowWidth="18720" windowHeight="17535" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Inflow</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>hot clinker</t>
-  </si>
-  <si>
-    <t>cool clinker</t>
   </si>
   <si>
     <t>cement_kiln-system</t>
@@ -560,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,16 +584,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,16 +612,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -679,7 +690,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -705,7 +716,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -714,24 +725,24 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -757,28 +768,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -828,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -842,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,35 +892,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/cement/factories/clinker_factory-HC.xlsx
+++ b/data/cement/factories/clinker_factory-HC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B9057-382D-B84F-936B-788929B22EE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="18720" windowHeight="17535" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="21660" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="10" r:id="rId1"/>
@@ -22,12 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -173,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -244,8 +239,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,16 +551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -582,7 +577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -596,7 +591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -610,7 +605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -624,7 +619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -644,16 +639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -688,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -714,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -740,7 +735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -766,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -798,21 +793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -834,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -845,7 +840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -856,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
     </row>
@@ -866,20 +861,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -901,7 +896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -912,7 +907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -923,7 +918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7"/>

--- a/data/cement/factories/clinker_factory-HC.xlsx
+++ b/data/cement/factories/clinker_factory-HC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B9057-382D-B84F-936B-788929B22EE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5DA813-3303-FA47-B0B2-2B8386B06A6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="21660" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Inflow</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>simple_heat</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
   </si>
 </sst>
 </file>
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,53 +743,105 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
     </row>

--- a/data/cement/factories/clinker_factory-HC.xlsx
+++ b/data/cement/factories/clinker_factory-HC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5DA813-3303-FA47-B0B2-2B8386B06A6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F855534-21A5-AA4E-9DF9-A5F2CAC37484}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="21660" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25960" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="10" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="clinker" sheetId="12" r:id="rId3"/>
     <sheet name="CO2" sheetId="13" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Inflow</t>
   </si>
@@ -150,9 +156,6 @@
     <t>simple_CO2capture</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
@@ -169,6 +172,15 @@
   </si>
   <si>
     <t>CO2__calcination</t>
+  </si>
+  <si>
+    <t>CCS-power</t>
+  </si>
+  <si>
+    <t>duplicate_power</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
   </si>
 </sst>
 </file>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +625,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -627,16 +639,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>37</v>
@@ -738,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -752,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>37</v>
@@ -764,7 +790,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -778,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>37</v>
@@ -790,12 +816,12 @@
         <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -813,15 +839,15 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
@@ -830,19 +856,45 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +975,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
